--- a/factor_all/result/config0/portfolio2/portfolio2_account_df.xlsx
+++ b/factor_all/result/config0/portfolio2/portfolio2_account_df.xlsx
@@ -8125,7 +8125,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x000002778503F2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F7AE48278&gt;}</t>
         </is>
       </c>
     </row>
@@ -8135,7 +8135,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x000002778503F2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F7AE48278&gt;}</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x000002778503F2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F7AE48278&gt;}</t>
         </is>
       </c>
     </row>
@@ -8155,7 +8155,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x000002778503F2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F7AE48278&gt;}</t>
         </is>
       </c>
     </row>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x000002778503F2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F7AE48278&gt;}</t>
         </is>
       </c>
     </row>
@@ -8175,7 +8175,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x000002778503F2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F7AE48278&gt;}</t>
         </is>
       </c>
     </row>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x000002778503F2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F7AE48278&gt;}</t>
         </is>
       </c>
     </row>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x000002778503F2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F7AE48278&gt;}</t>
         </is>
       </c>
     </row>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x000002778503F2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F7AE48278&gt;}</t>
         </is>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x000002778503F2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F7AE48278&gt;}</t>
         </is>
       </c>
     </row>
@@ -8225,7 +8225,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x000002778503F2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F7AE48278&gt;}</t>
         </is>
       </c>
     </row>
@@ -8235,7 +8235,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x000002778503F2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F7AE48278&gt;}</t>
         </is>
       </c>
     </row>
@@ -8245,7 +8245,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x000002778503F2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F7AE48278&gt;}</t>
         </is>
       </c>
     </row>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x000002778503F2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F7AE48278&gt;}</t>
         </is>
       </c>
     </row>
@@ -8265,7 +8265,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x000002778503F2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F7AE48278&gt;}</t>
         </is>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x000002778503F2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F7AE48278&gt;}</t>
         </is>
       </c>
     </row>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x000002778503F2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F7AE48278&gt;}</t>
         </is>
       </c>
     </row>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x000002778503F2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F7AE48278&gt;}</t>
         </is>
       </c>
     </row>
@@ -8305,7 +8305,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x000002778503F2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F7AE48278&gt;}</t>
         </is>
       </c>
     </row>
@@ -8315,7 +8315,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x000002778503F2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F7AE48278&gt;}</t>
         </is>
       </c>
     </row>
@@ -8325,7 +8325,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x000002778503F2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F7AE48278&gt;}</t>
         </is>
       </c>
     </row>
